--- a/test3.xlsx
+++ b/test3.xlsx
@@ -80,7 +80,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Fixed Guard Relay</t>
+      <t>Near Source Guard Relay</t>
     </r>
     <r>
       <rPr>
@@ -367,34 +367,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.7189999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.665</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5219999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4850000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.1210000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.7570000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.2719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.7190000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0949999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.581</c:v>
+                  <c:v>3.1709999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -471,34 +444,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.383</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.4969999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.4349999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.5970000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5110000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.8460000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.5190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.2290000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.641</c:v>
+                  <c:v>3.2069999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -575,34 +521,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.4449999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.611000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3250000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2119999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.6260000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4550000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.271000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0579999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.008</c:v>
+                  <c:v>3.9020000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,34 +598,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.9319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.637</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4239999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3810000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.6339999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.2709999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.5209999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.2439999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.75</c:v>
+                  <c:v>3.831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,34 +675,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.6909999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3710000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.7510000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8920000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2649999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8040000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9569999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.0510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.5069999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.2610000000000001</c:v>
+                  <c:v>3.0710000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,9 +698,7 @@
           <c:spPr>
             <a:ln w="31750">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -887,58 +750,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.2340000000000004</c:v>
+                  <c:v>3.4364000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.7507999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1340000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7219999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1808000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7331999999999992</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3778000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8162000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6265999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4481999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="108479232"/>
-        <c:axId val="108480768"/>
+        <c:axId val="126506112"/>
+        <c:axId val="126507648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108479232"/>
+        <c:axId val="126506112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108480768"/>
+        <c:crossAx val="126507648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108480768"/>
+        <c:axId val="126507648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +809,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108479232"/>
+        <c:crossAx val="126506112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -959,7 +822,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1285,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1300,10 +1163,11 @@
     <col min="12" max="12" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:14" ht="23.25">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
+      <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
@@ -1314,8 +1178,10 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1338,244 +1204,154 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5">
-        <v>2.7189999999999999</v>
+        <v>3.1709999999999998</v>
       </c>
       <c r="C4" s="5">
-        <v>3.383</v>
+        <v>3.2069999999999999</v>
       </c>
       <c r="D4" s="5">
-        <v>3.4449999999999998</v>
+        <v>3.9020000000000001</v>
       </c>
       <c r="E4" s="11">
-        <v>3.9319999999999999</v>
+        <v>3.831</v>
       </c>
       <c r="F4" s="11">
-        <v>2.6909999999999998</v>
+        <v>3.0710000000000002</v>
       </c>
       <c r="G4" s="6">
         <f>AVERAGE(B4:F4)</f>
-        <v>3.2340000000000004</v>
+        <v>3.4364000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5">
-        <v>7.665</v>
-      </c>
-      <c r="C5" s="5">
-        <v>8.4969999999999999</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10.611000000000001</v>
-      </c>
-      <c r="E5" s="11">
-        <v>9.61</v>
-      </c>
-      <c r="F5" s="11">
-        <v>7.3710000000000004</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="6" t="e">
         <f t="shared" ref="G5:G13" si="0">AVERAGE(B5:F5)</f>
-        <v>8.7507999999999999</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5">
-        <v>3.5219999999999998</v>
-      </c>
-      <c r="C6" s="5">
-        <v>4.4349999999999996</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4.3250000000000002</v>
-      </c>
-      <c r="E6" s="11">
-        <v>3.637</v>
-      </c>
-      <c r="F6" s="11">
-        <v>4.7510000000000003</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>4.1340000000000003</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11">
-        <v>5.4850000000000003</v>
-      </c>
-      <c r="C7" s="11">
-        <v>7.5970000000000004</v>
-      </c>
-      <c r="D7" s="11">
-        <v>7.2119999999999997</v>
-      </c>
-      <c r="E7" s="11">
-        <v>2.4239999999999999</v>
-      </c>
-      <c r="F7" s="11">
-        <v>5.8920000000000003</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>5.7219999999999995</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11">
-        <v>5.1210000000000004</v>
-      </c>
-      <c r="C8" s="11">
-        <v>5.5110000000000001</v>
-      </c>
-      <c r="D8" s="11">
-        <v>5.6260000000000003</v>
-      </c>
-      <c r="E8" s="11">
-        <v>5.3810000000000002</v>
-      </c>
-      <c r="F8" s="11">
-        <v>4.2649999999999997</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>5.1808000000000005</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11">
-        <v>3.7570000000000001</v>
-      </c>
-      <c r="C9" s="11">
-        <v>7.016</v>
-      </c>
-      <c r="D9" s="11">
-        <v>4.4550000000000001</v>
-      </c>
-      <c r="E9" s="11">
-        <v>3.6339999999999999</v>
-      </c>
-      <c r="F9" s="11">
-        <v>4.8040000000000003</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>4.7331999999999992</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="11">
-        <v>3.2719999999999998</v>
-      </c>
-      <c r="C10" s="11">
-        <v>3.8460000000000001</v>
-      </c>
-      <c r="D10" s="11">
-        <v>4.5430000000000001</v>
-      </c>
-      <c r="E10" s="11">
-        <v>7.2709999999999999</v>
-      </c>
-      <c r="F10" s="11">
-        <v>2.9569999999999999</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>4.3778000000000006</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11">
-        <v>4.7190000000000003</v>
-      </c>
-      <c r="C11" s="11">
-        <v>6.5190000000000001</v>
-      </c>
-      <c r="D11" s="11">
-        <v>10.271000000000001</v>
-      </c>
-      <c r="E11" s="11">
-        <v>6.5209999999999999</v>
-      </c>
-      <c r="F11" s="11">
-        <v>6.0510000000000002</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>6.8162000000000003</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="11">
-        <v>4.0949999999999998</v>
-      </c>
-      <c r="C12" s="11">
-        <v>5.2290000000000001</v>
-      </c>
-      <c r="D12" s="11">
-        <v>5.0579999999999998</v>
-      </c>
-      <c r="E12" s="11">
-        <v>4.2439999999999998</v>
-      </c>
-      <c r="F12" s="11">
-        <v>4.5069999999999997</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="6" t="e">
         <f t="shared" si="0"/>
-        <v>4.6265999999999989</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14">
       <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="9">
-        <v>3.581</v>
-      </c>
-      <c r="C13" s="9">
-        <v>4.641</v>
-      </c>
-      <c r="D13" s="9">
-        <v>6.008</v>
-      </c>
-      <c r="E13" s="9">
-        <v>3.75</v>
-      </c>
-      <c r="F13" s="9">
-        <v>4.2610000000000001</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>4.4481999999999999</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="10:10">
@@ -1583,7 +1359,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="http://www.google.com'"/>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -369,6 +369,33 @@
                 <c:pt idx="0">
                   <c:v>3.1709999999999998</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.593999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1929999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1519999999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8520000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -446,6 +473,33 @@
                 <c:pt idx="0">
                   <c:v>3.2069999999999999</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5660000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8259999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3280000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9640000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5640000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -523,6 +577,33 @@
                 <c:pt idx="0">
                   <c:v>3.9020000000000001</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.641999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3129999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.532</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5810000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.891</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -600,6 +681,33 @@
                 <c:pt idx="0">
                   <c:v>3.831</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.883</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.234</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -677,6 +785,33 @@
                 <c:pt idx="0">
                   <c:v>3.0710000000000002</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7619999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8760000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -753,55 +888,55 @@
                   <c:v>3.4364000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9.9974000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.5038</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.6433999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.2249999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.8361999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.0476000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.6961999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.719199999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4.8834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="126506112"/>
-        <c:axId val="126507648"/>
+        <c:axId val="109007616"/>
+        <c:axId val="109009152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126506112"/>
+        <c:axId val="109007616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126507648"/>
+        <c:crossAx val="109009152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126507648"/>
+        <c:axId val="109009152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,7 +944,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126506112"/>
+        <c:crossAx val="109007616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -822,7 +957,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1151,7 +1286,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1232,126 +1367,216 @@
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="6" t="e">
+      <c r="B5" s="5">
+        <v>11.593999999999999</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8.5660000000000007</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10.641999999999999</v>
+      </c>
+      <c r="E5" s="11">
+        <v>8.7620000000000005</v>
+      </c>
+      <c r="F5" s="11">
+        <v>10.423</v>
+      </c>
+      <c r="G5" s="6">
         <f t="shared" ref="G5:G13" si="0">AVERAGE(B5:F5)</f>
-        <v>#DIV/0!</v>
+        <v>9.9974000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="6" t="e">
+      <c r="B6" s="5">
+        <v>5.4850000000000003</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.8339999999999996</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5.3129999999999997</v>
+      </c>
+      <c r="E6" s="11">
+        <v>5.0640000000000001</v>
+      </c>
+      <c r="F6" s="11">
+        <v>4.8230000000000004</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>5.5038</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="6" t="e">
+      <c r="B7" s="11">
+        <v>6.1929999999999996</v>
+      </c>
+      <c r="C7" s="11">
+        <v>7.6349999999999998</v>
+      </c>
+      <c r="D7" s="11">
+        <v>6.532</v>
+      </c>
+      <c r="E7" s="11">
+        <v>6.1120000000000001</v>
+      </c>
+      <c r="F7" s="11">
+        <v>6.7450000000000001</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>6.6433999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="6" t="e">
+      <c r="B8" s="11">
+        <v>5.8209999999999997</v>
+      </c>
+      <c r="C8" s="11">
+        <v>4.8259999999999996</v>
+      </c>
+      <c r="D8" s="11">
+        <v>4.8330000000000002</v>
+      </c>
+      <c r="E8" s="11">
+        <v>5.532</v>
+      </c>
+      <c r="F8" s="11">
+        <v>5.1130000000000004</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>5.2249999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="6" t="e">
+      <c r="B9" s="11">
+        <v>4.8780000000000001</v>
+      </c>
+      <c r="C9" s="11">
+        <v>4.3620000000000001</v>
+      </c>
+      <c r="D9" s="11">
+        <v>5.8449999999999998</v>
+      </c>
+      <c r="E9" s="11">
+        <v>4.3330000000000002</v>
+      </c>
+      <c r="F9" s="11">
+        <v>4.7629999999999999</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4.8361999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="6" t="e">
+      <c r="B10" s="11">
+        <v>5.8940000000000001</v>
+      </c>
+      <c r="C10" s="11">
+        <v>6.3280000000000003</v>
+      </c>
+      <c r="D10" s="11">
+        <v>6.0170000000000003</v>
+      </c>
+      <c r="E10" s="11">
+        <v>5.5670000000000002</v>
+      </c>
+      <c r="F10" s="11">
+        <v>6.4320000000000004</v>
+      </c>
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>6.0476000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="6" t="e">
+      <c r="B11" s="11">
+        <v>4.8319999999999999</v>
+      </c>
+      <c r="C11" s="11">
+        <v>4.9640000000000004</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4.5810000000000004</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4.883</v>
+      </c>
+      <c r="F11" s="11">
+        <v>4.2210000000000001</v>
+      </c>
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4.6961999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="6" t="e">
+      <c r="B12" s="11">
+        <v>8.1519999999999992</v>
+      </c>
+      <c r="C12" s="11">
+        <v>4.5670000000000002</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4.9859999999999998</v>
+      </c>
+      <c r="E12" s="11">
+        <v>5.1289999999999996</v>
+      </c>
+      <c r="F12" s="11">
+        <v>5.7619999999999996</v>
+      </c>
+      <c r="G12" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>5.719199999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10" t="e">
+      <c r="B13" s="9">
+        <v>4.8520000000000003</v>
+      </c>
+      <c r="C13" s="9">
+        <v>4.5640000000000001</v>
+      </c>
+      <c r="D13" s="9">
+        <v>5.891</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4.234</v>
+      </c>
+      <c r="F13" s="9">
+        <v>4.8760000000000003</v>
+      </c>
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4.8834</v>
       </c>
     </row>
     <row r="17" spans="10:10">
